--- a/data/trans_orig/IP28_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP28_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C4A5AD7-2EF6-4665-B5E9-5E0952F0E0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7BDB899-542D-4FC2-9A72-3936EDA98411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{87C7E190-7201-4296-AF7C-71F45CE8E617}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2D20DA30-13B5-4D8D-9071-1DE41ED480E9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,6 +134,51 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -191,51 +236,6 @@
     <t>2,98%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
     <t>98,77%</t>
   </si>
   <si>
@@ -323,6 +323,36 @@
     <t>2,07%</t>
   </si>
   <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
     <t>97,14%</t>
   </si>
   <si>
@@ -377,36 +407,6 @@
     <t>4,89%</t>
   </si>
   <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
     <t>98,34%</t>
   </si>
   <si>
@@ -485,6 +485,54 @@
     <t>1,13%</t>
   </si>
   <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
     <t>98,41%</t>
   </si>
   <si>
@@ -539,54 +587,6 @@
     <t>2,57%</t>
   </si>
   <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
     <t>98,27%</t>
   </si>
   <si>
@@ -650,6 +650,24 @@
     <t>0,37%</t>
   </si>
   <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
     <t>97,22%</t>
   </si>
   <si>
@@ -690,24 +708,6 @@
   </si>
   <si>
     <t>2,99%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
   </si>
   <si>
     <t>99,01%</t>
@@ -1141,7 +1141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27441072-9A53-4BA7-9141-F72FE29604D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E394497E-C6AE-48B8-9410-A0FE907188FB}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1414,10 +1414,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>413</v>
+        <v>324</v>
       </c>
       <c r="D7" s="7">
-        <v>275611</v>
+        <v>213908</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1426,37 +1426,37 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>299</v>
+      </c>
+      <c r="I7" s="7">
+        <v>201856</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="7">
-        <v>382</v>
-      </c>
-      <c r="I7" s="7">
-        <v>257807</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>623</v>
+      </c>
+      <c r="N7" s="7">
+        <v>415764</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="7">
-        <v>795</v>
-      </c>
-      <c r="N7" s="7">
-        <v>533418</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1465,49 +1465,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>5404</v>
+        <v>2120</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1557</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>5</v>
+      </c>
+      <c r="N8" s="7">
+        <v>3677</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="7">
-        <v>8</v>
-      </c>
-      <c r="I8" s="7">
-        <v>5243</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" s="7">
-        <v>16</v>
-      </c>
-      <c r="N8" s="7">
-        <v>10647</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1516,10 +1516,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>421</v>
+        <v>327</v>
       </c>
       <c r="D9" s="7">
-        <v>281015</v>
+        <v>216028</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1531,10 +1531,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>390</v>
+        <v>301</v>
       </c>
       <c r="I9" s="7">
-        <v>263050</v>
+        <v>203413</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1546,10 +1546,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>811</v>
+        <v>628</v>
       </c>
       <c r="N9" s="7">
-        <v>544065</v>
+        <v>419441</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1563,55 +1563,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="D10" s="7">
-        <v>213908</v>
+        <v>275611</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="7">
+        <v>382</v>
+      </c>
+      <c r="I10" s="7">
+        <v>257807</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>299</v>
-      </c>
-      <c r="I10" s="7">
-        <v>201856</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>795</v>
+      </c>
+      <c r="N10" s="7">
+        <v>533418</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>623</v>
-      </c>
-      <c r="N10" s="7">
-        <v>415764</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1620,40 +1620,40 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>2120</v>
+        <v>5404</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>8</v>
+      </c>
+      <c r="I11" s="7">
+        <v>5243</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1557</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>61</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="N11" s="7">
-        <v>3677</v>
+        <v>10647</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>62</v>
@@ -1671,10 +1671,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>327</v>
+        <v>421</v>
       </c>
       <c r="D12" s="7">
-        <v>216028</v>
+        <v>281015</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1686,10 +1686,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>301</v>
+        <v>390</v>
       </c>
       <c r="I12" s="7">
-        <v>203413</v>
+        <v>263050</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1701,10 +1701,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>628</v>
+        <v>811</v>
       </c>
       <c r="N12" s="7">
-        <v>419441</v>
+        <v>544065</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1733,7 +1733,7 @@
         <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>66</v>
@@ -1787,7 +1787,7 @@
         <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -1887,7 +1887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B7D34B-5C02-49CD-BB93-25E03094C0BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D16843F-2B41-42DD-89A3-DBAA303F2E31}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2160,49 +2160,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>363</v>
+        <v>305</v>
       </c>
       <c r="D7" s="7">
-        <v>245636</v>
+        <v>220139</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>281</v>
+      </c>
+      <c r="I7" s="7">
+        <v>200671</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="7">
-        <v>328</v>
-      </c>
-      <c r="I7" s="7">
-        <v>229242</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>586</v>
+      </c>
+      <c r="N7" s="7">
+        <v>420809</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M7" s="7">
-        <v>691</v>
-      </c>
-      <c r="N7" s="7">
-        <v>474878</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="P7" s="7" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2211,49 +2211,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>7224</v>
+        <v>1448</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="7">
+        <v>3</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2226</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" s="7">
+        <v>5</v>
+      </c>
+      <c r="N8" s="7">
+        <v>3675</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="7">
-        <v>13</v>
-      </c>
-      <c r="I8" s="7">
-        <v>9381</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M8" s="7">
-        <v>24</v>
-      </c>
-      <c r="N8" s="7">
-        <v>16605</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="P8" s="7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,10 +2262,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>374</v>
+        <v>307</v>
       </c>
       <c r="D9" s="7">
-        <v>252860</v>
+        <v>221587</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2277,10 +2277,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="I9" s="7">
-        <v>238623</v>
+        <v>202897</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2292,10 +2292,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>715</v>
+        <v>591</v>
       </c>
       <c r="N9" s="7">
-        <v>491483</v>
+        <v>424484</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2309,55 +2309,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>305</v>
+        <v>363</v>
       </c>
       <c r="D10" s="7">
-        <v>220139</v>
+        <v>245636</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="7">
+        <v>328</v>
+      </c>
+      <c r="I10" s="7">
+        <v>229242</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" s="7">
+        <v>691</v>
+      </c>
+      <c r="N10" s="7">
+        <v>474878</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>281</v>
-      </c>
-      <c r="I10" s="7">
-        <v>200671</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M10" s="7">
-        <v>586</v>
-      </c>
-      <c r="N10" s="7">
-        <v>420809</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2366,49 +2366,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D11" s="7">
-        <v>1448</v>
+        <v>7224</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="7">
+        <v>13</v>
+      </c>
+      <c r="I11" s="7">
+        <v>9381</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2226</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>24</v>
+      </c>
+      <c r="N11" s="7">
+        <v>16605</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="M11" s="7">
-        <v>5</v>
-      </c>
-      <c r="N11" s="7">
-        <v>3675</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,10 +2417,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>307</v>
+        <v>374</v>
       </c>
       <c r="D12" s="7">
-        <v>221587</v>
+        <v>252860</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2432,10 +2432,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>284</v>
+        <v>341</v>
       </c>
       <c r="I12" s="7">
-        <v>202897</v>
+        <v>238623</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2447,10 +2447,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>591</v>
+        <v>715</v>
       </c>
       <c r="N12" s="7">
-        <v>424484</v>
+        <v>491483</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2482,7 +2482,7 @@
         <v>123</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H13" s="7">
         <v>914</v>
@@ -2491,7 +2491,7 @@
         <v>633305</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>124</v>
@@ -2530,7 +2530,7 @@
         <v>129</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>130</v>
@@ -2542,7 +2542,7 @@
         <v>13052</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>131</v>
@@ -2633,7 +2633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E49E6BC-025D-45DF-97C1-62C673A7CCDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0519CBFE-89DD-4121-8CF6-3E6ED98F70A2}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2906,10 +2906,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="D7" s="7">
-        <v>252482</v>
+        <v>218213</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>148</v>
@@ -2921,10 +2921,10 @@
         <v>150</v>
       </c>
       <c r="H7" s="7">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="I7" s="7">
-        <v>239089</v>
+        <v>209220</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>151</v>
@@ -2933,22 +2933,22 @@
         <v>152</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>636</v>
+      </c>
+      <c r="N7" s="7">
+        <v>427433</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="M7" s="7">
-        <v>675</v>
-      </c>
-      <c r="N7" s="7">
-        <v>491571</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,49 +2957,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>4073</v>
+        <v>2588</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>3</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2031</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H8" s="7">
-        <v>5</v>
-      </c>
-      <c r="I8" s="7">
-        <v>3162</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>7</v>
+      </c>
+      <c r="N8" s="7">
+        <v>4619</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="M8" s="7">
-        <v>11</v>
-      </c>
-      <c r="N8" s="7">
-        <v>7235</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,10 +3008,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="D9" s="7">
-        <v>256555</v>
+        <v>220801</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3023,10 +3023,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="I9" s="7">
-        <v>242251</v>
+        <v>211251</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3038,10 +3038,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>686</v>
+        <v>643</v>
       </c>
       <c r="N9" s="7">
-        <v>498806</v>
+        <v>432052</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3055,55 +3055,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="D10" s="7">
-        <v>218213</v>
+        <v>252482</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>334</v>
+      </c>
+      <c r="I10" s="7">
+        <v>239089</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H10" s="7">
-        <v>320</v>
-      </c>
-      <c r="I10" s="7">
-        <v>209220</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>675</v>
+      </c>
+      <c r="N10" s="7">
+        <v>491571</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>636</v>
-      </c>
-      <c r="N10" s="7">
-        <v>427433</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,40 +3112,40 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>2588</v>
+        <v>4073</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>5</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3162</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2031</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>178</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N11" s="7">
-        <v>4619</v>
+        <v>7235</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>179</v>
@@ -3163,10 +3163,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="D12" s="7">
-        <v>220801</v>
+        <v>256555</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3178,10 +3178,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="I12" s="7">
-        <v>211251</v>
+        <v>242251</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3193,10 +3193,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>643</v>
+        <v>686</v>
       </c>
       <c r="N12" s="7">
-        <v>432052</v>
+        <v>498806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3379,7 +3379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59715FA8-D386-427A-8E1D-2E80C4F0A415}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B406B3F-7EA2-404B-B58D-C4AFEB9832A8}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3652,49 +3652,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>469</v>
+        <v>269</v>
       </c>
       <c r="D7" s="7">
-        <v>394615</v>
+        <v>203707</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>280</v>
+      </c>
+      <c r="I7" s="7">
+        <v>197564</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>549</v>
+      </c>
+      <c r="N7" s="7">
+        <v>401272</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="H7" s="7">
-        <v>449</v>
-      </c>
-      <c r="I7" s="7">
-        <v>339273</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="M7" s="7">
-        <v>918</v>
-      </c>
-      <c r="N7" s="7">
-        <v>733888</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>125</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,49 +3703,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>5811</v>
+        <v>1348</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>210</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="H8" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>8738</v>
+        <v>703</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>212</v>
+        <v>89</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="M8" s="7">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>14549</v>
+        <v>2051</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,10 +3754,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>477</v>
+        <v>271</v>
       </c>
       <c r="D9" s="7">
-        <v>400426</v>
+        <v>205055</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3769,10 +3769,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>459</v>
+        <v>281</v>
       </c>
       <c r="I9" s="7">
-        <v>348011</v>
+        <v>198267</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3784,10 +3784,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>936</v>
+        <v>552</v>
       </c>
       <c r="N9" s="7">
-        <v>748437</v>
+        <v>403323</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3801,55 +3801,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>269</v>
+        <v>469</v>
       </c>
       <c r="D10" s="7">
-        <v>203707</v>
+        <v>394615</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="H10" s="7">
-        <v>280</v>
+        <v>449</v>
       </c>
       <c r="I10" s="7">
-        <v>197564</v>
+        <v>339273</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>84</v>
+        <v>211</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="M10" s="7">
-        <v>549</v>
+        <v>918</v>
       </c>
       <c r="N10" s="7">
-        <v>401272</v>
+        <v>733888</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,46 +3858,46 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>1348</v>
+        <v>5811</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I11" s="7">
-        <v>703</v>
+        <v>8738</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>89</v>
+        <v>218</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>220</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="N11" s="7">
-        <v>2051</v>
+        <v>14549</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>221</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>222</v>
@@ -3909,10 +3909,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>271</v>
+        <v>477</v>
       </c>
       <c r="D12" s="7">
-        <v>205055</v>
+        <v>400426</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3924,10 +3924,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>459</v>
       </c>
       <c r="I12" s="7">
-        <v>198267</v>
+        <v>348011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3939,10 +3939,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="N12" s="7">
-        <v>403323</v>
+        <v>748437</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4004,7 +4004,7 @@
         <v>229</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,7 +4052,7 @@
         <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>236</v>

--- a/data/trans_orig/IP28_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP28_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7BDB899-542D-4FC2-9A72-3936EDA98411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C5193DA-B658-45E5-942E-2C3738C3DF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2D20DA30-13B5-4D8D-9071-1DE41ED480E9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5140B718-4FFE-463E-A03B-D87CC62119E9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="279">
   <si>
     <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2007 (Tasa respuesta: 98,72%)</t>
   </si>
@@ -68,688 +68,814 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2012 (Tasa respuesta: 91,33%)</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2015 (Tasa respuesta: 89,7%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
   </si>
   <si>
     <t>99,0%</t>
   </si>
   <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2023 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
   </si>
   <si>
     <t>98,19%</t>
   </si>
   <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2012 (Tasa respuesta: 91,33%)</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2015 (Tasa respuesta: 89,7%)</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
   </si>
   <si>
     <t>99,22%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2023 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
   </si>
 </sst>
 </file>
@@ -760,7 +886,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -856,39 +982,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -940,7 +1066,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1051,13 +1177,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1066,6 +1185,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1130,19 +1256,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E394497E-C6AE-48B8-9410-A0FE907188FB}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2697018-8320-46EE-B909-C387ABC799F5}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1259,10 +1405,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>325</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>217288</v>
+        <v>639</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1274,85 +1420,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>308</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>202017</v>
+        <v>598</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1236</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>633</v>
-      </c>
-      <c r="N4" s="7">
-        <v>419305</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>179</v>
+      </c>
+      <c r="D5" s="7">
+        <v>119482</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1287</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>157</v>
+      </c>
+      <c r="I5" s="7">
+        <v>102897</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2032</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="7">
+        <v>336</v>
+      </c>
+      <c r="N5" s="7">
+        <v>222380</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>5</v>
-      </c>
-      <c r="N5" s="7">
-        <v>3319</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1361,153 +1507,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>327</v>
+        <v>180</v>
       </c>
       <c r="D6" s="7">
-        <v>218575</v>
+        <v>120121</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>311</v>
+        <v>158</v>
       </c>
       <c r="I6" s="7">
-        <v>204049</v>
+        <v>103495</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>638</v>
+        <v>338</v>
       </c>
       <c r="N6" s="7">
-        <v>422624</v>
+        <v>223616</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>324</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>213908</v>
+        <v>1359</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="7">
+        <v>4</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2991</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>6</v>
+      </c>
+      <c r="N7" s="7">
+        <v>4350</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>299</v>
-      </c>
-      <c r="I7" s="7">
-        <v>201856</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="7">
-        <v>623</v>
-      </c>
-      <c r="N7" s="7">
-        <v>415764</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>375</v>
       </c>
       <c r="D8" s="7">
-        <v>2120</v>
+        <v>249070</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7">
+        <v>367</v>
+      </c>
+      <c r="I8" s="7">
+        <v>244935</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1557</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>742</v>
+      </c>
+      <c r="N8" s="7">
+        <v>494005</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="7">
-        <v>5</v>
-      </c>
-      <c r="N8" s="7">
-        <v>3677</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1516,153 +1662,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>327</v>
+        <v>377</v>
       </c>
       <c r="D9" s="7">
-        <v>216028</v>
+        <v>250429</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>301</v>
+        <v>371</v>
       </c>
       <c r="I9" s="7">
-        <v>203413</v>
+        <v>247926</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>628</v>
+        <v>748</v>
       </c>
       <c r="N9" s="7">
-        <v>419441</v>
+        <v>498355</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>413</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>275611</v>
+        <v>2075</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2029</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="7">
-        <v>382</v>
-      </c>
-      <c r="I10" s="7">
-        <v>257807</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>6</v>
+      </c>
+      <c r="N10" s="7">
+        <v>4104</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="M10" s="7">
-        <v>795</v>
-      </c>
-      <c r="N10" s="7">
-        <v>533418</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="D11" s="7">
-        <v>5404</v>
+        <v>136944</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>187</v>
+      </c>
+      <c r="I11" s="7">
+        <v>124985</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="7">
-        <v>8</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5243</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>392</v>
+      </c>
+      <c r="N11" s="7">
+        <v>261929</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="7">
-        <v>16</v>
-      </c>
-      <c r="N11" s="7">
-        <v>10647</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,78 +1817,78 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>421</v>
+        <v>208</v>
       </c>
       <c r="D12" s="7">
-        <v>281015</v>
+        <v>139019</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>390</v>
+        <v>190</v>
       </c>
       <c r="I12" s="7">
-        <v>263050</v>
+        <v>127014</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>811</v>
+        <v>398</v>
       </c>
       <c r="N12" s="7">
-        <v>544065</v>
+        <v>266033</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1062</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>706808</v>
+        <v>4738</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>66</v>
       </c>
       <c r="H13" s="7">
-        <v>989</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>661681</v>
+        <v>3214</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>67</v>
@@ -1754,10 +1900,10 @@
         <v>69</v>
       </c>
       <c r="M13" s="7">
-        <v>2051</v>
+        <v>12</v>
       </c>
       <c r="N13" s="7">
-        <v>1368488</v>
+        <v>7952</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>70</v>
@@ -1772,13 +1918,13 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>13</v>
+        <v>303</v>
       </c>
       <c r="D14" s="7">
-        <v>8810</v>
+        <v>201311</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>73</v>
@@ -1787,37 +1933,37 @@
         <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
-        <v>13</v>
+        <v>278</v>
       </c>
       <c r="I14" s="7">
-        <v>8832</v>
+        <v>188864</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
-        <v>26</v>
+        <v>581</v>
       </c>
       <c r="N14" s="7">
-        <v>17642</v>
+        <v>390174</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,55 +1972,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>310</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7">
+        <v>283</v>
+      </c>
+      <c r="I15" s="7">
+        <v>192078</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="7">
+        <v>593</v>
+      </c>
+      <c r="N15" s="7">
+        <v>398126</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7">
+        <v>8810</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="7">
+        <v>13</v>
+      </c>
+      <c r="I16" s="7">
+        <v>8832</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M16" s="7">
+        <v>26</v>
+      </c>
+      <c r="N16" s="7">
+        <v>17642</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1062</v>
+      </c>
+      <c r="D17" s="7">
+        <v>706808</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="7">
+        <v>989</v>
+      </c>
+      <c r="I17" s="7">
+        <v>661681</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2051</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1368488</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1075</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>715618</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="7">
         <v>1002</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>670513</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="7">
         <v>2077</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1386130</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1887,8 +2194,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D16843F-2B41-42DD-89A3-DBAA303F2E31}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3817B1-0461-4C1A-AED3-2BFE8134D1EC}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1904,7 +2211,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2005,100 +2312,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>212136</v>
+        <v>1999</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="H4" s="7">
-        <v>305</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>203393</v>
+        <v>1445</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M4" s="7">
-        <v>605</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>415529</v>
+        <v>3444</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>185</v>
       </c>
       <c r="D5" s="7">
-        <v>2746</v>
+        <v>129769</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>194</v>
       </c>
       <c r="I5" s="7">
-        <v>1444</v>
+        <v>130202</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>379</v>
       </c>
       <c r="N5" s="7">
-        <v>4191</v>
+        <v>259971</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2107,153 +2414,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>304</v>
+        <v>188</v>
       </c>
       <c r="D6" s="7">
-        <v>214882</v>
+        <v>131768</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>307</v>
+        <v>196</v>
       </c>
       <c r="I6" s="7">
-        <v>204837</v>
+        <v>131647</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>611</v>
+        <v>384</v>
       </c>
       <c r="N6" s="7">
-        <v>419720</v>
+        <v>263415</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>305</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>220139</v>
+        <v>1455</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="H7" s="7">
-        <v>281</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>200671</v>
+        <v>756</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="M7" s="7">
-        <v>586</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>420809</v>
+        <v>2211</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>335</v>
       </c>
       <c r="D8" s="7">
-        <v>1448</v>
+        <v>241406</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>303</v>
       </c>
       <c r="I8" s="7">
-        <v>2226</v>
+        <v>210313</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>5</v>
+        <v>638</v>
       </c>
       <c r="N8" s="7">
-        <v>3675</v>
+        <v>451719</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,153 +2569,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="D9" s="7">
-        <v>221587</v>
+        <v>242861</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>202897</v>
+        <v>211069</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>591</v>
+        <v>641</v>
       </c>
       <c r="N9" s="7">
-        <v>424484</v>
+        <v>453930</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>363</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>245636</v>
+        <v>2665</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
-        <v>328</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>229242</v>
+        <v>4805</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
-        <v>691</v>
+        <v>11</v>
       </c>
       <c r="N10" s="7">
-        <v>474878</v>
+        <v>7470</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>11</v>
+        <v>209</v>
       </c>
       <c r="D11" s="7">
-        <v>7224</v>
+        <v>145034</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="H11" s="7">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="I11" s="7">
-        <v>9381</v>
+        <v>143041</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="M11" s="7">
-        <v>24</v>
+        <v>412</v>
       </c>
       <c r="N11" s="7">
-        <v>16605</v>
+        <v>288075</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,153 +2724,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>374</v>
+        <v>213</v>
       </c>
       <c r="D12" s="7">
-        <v>252860</v>
+        <v>147699</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>341</v>
+        <v>210</v>
       </c>
       <c r="I12" s="7">
-        <v>238623</v>
+        <v>147846</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>715</v>
+        <v>423</v>
       </c>
       <c r="N12" s="7">
-        <v>491483</v>
+        <v>295545</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>968</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>677911</v>
+        <v>5300</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
-        <v>914</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>633305</v>
+        <v>6047</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
-        <v>1882</v>
+        <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>1311215</v>
+        <v>11346</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>17</v>
+        <v>239</v>
       </c>
       <c r="D14" s="7">
-        <v>11419</v>
+        <v>161701</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="I14" s="7">
-        <v>13052</v>
+        <v>149748</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="M14" s="7">
-        <v>35</v>
+        <v>453</v>
       </c>
       <c r="N14" s="7">
-        <v>24471</v>
+        <v>311450</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,55 +2879,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>247</v>
+      </c>
+      <c r="D15" s="7">
+        <v>167001</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7">
+        <v>222</v>
+      </c>
+      <c r="I15" s="7">
+        <v>155795</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="7">
+        <v>469</v>
+      </c>
+      <c r="N15" s="7">
+        <v>322796</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>17</v>
+      </c>
+      <c r="D16" s="7">
+        <v>11419</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H16" s="7">
+        <v>18</v>
+      </c>
+      <c r="I16" s="7">
+        <v>13052</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16" s="7">
+        <v>35</v>
+      </c>
+      <c r="N16" s="7">
+        <v>24471</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>968</v>
+      </c>
+      <c r="D17" s="7">
+        <v>677911</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" s="7">
+        <v>914</v>
+      </c>
+      <c r="I17" s="7">
+        <v>633305</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1882</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1311215</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>985</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>689330</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="7">
         <v>932</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>646357</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="7">
         <v>1917</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1335686</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2633,8 +3101,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0519CBFE-89DD-4121-8CF6-3E6ED98F70A2}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452361CA-FE1D-4391-BE11-1FC7BB353504}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2650,7 +3118,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2751,100 +3219,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>190043</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="H4" s="7">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>178541</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="M4" s="7">
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>368583</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>114685</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="I5" s="7">
-        <v>1179</v>
+        <v>121329</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>368</v>
       </c>
       <c r="N5" s="7">
-        <v>1179</v>
+        <v>236015</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,153 +3321,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>286</v>
+        <v>173</v>
       </c>
       <c r="D6" s="7">
-        <v>190043</v>
+        <v>114685</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>292</v>
+        <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>179720</v>
+        <v>121329</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>578</v>
+        <v>368</v>
       </c>
       <c r="N6" s="7">
-        <v>369762</v>
+        <v>236015</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>316</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>218213</v>
+        <v>666</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
-        <v>320</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>209220</v>
+        <v>1751</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
-        <v>636</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>427433</v>
+        <v>2417</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>328</v>
       </c>
       <c r="D8" s="7">
-        <v>2588</v>
+        <v>223200</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>294</v>
       </c>
       <c r="I8" s="7">
-        <v>2031</v>
+        <v>186622</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
-        <v>7</v>
+        <v>622</v>
       </c>
       <c r="N8" s="7">
-        <v>4619</v>
+        <v>409822</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,153 +3476,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="D9" s="7">
-        <v>220801</v>
+        <v>223866</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="I9" s="7">
-        <v>211251</v>
+        <v>188373</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>643</v>
+        <v>626</v>
       </c>
       <c r="N9" s="7">
-        <v>432052</v>
+        <v>412239</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>341</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>252482</v>
+        <v>2594</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="H10" s="7">
-        <v>334</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>239089</v>
+        <v>3409</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
-        <v>675</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>491571</v>
+        <v>6003</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>231</v>
       </c>
       <c r="D11" s="7">
-        <v>4073</v>
+        <v>165860</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>235</v>
       </c>
       <c r="I11" s="7">
-        <v>3162</v>
+        <v>163611</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
-        <v>11</v>
+        <v>466</v>
       </c>
       <c r="N11" s="7">
-        <v>7235</v>
+        <v>329471</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,153 +3631,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>347</v>
+        <v>235</v>
       </c>
       <c r="D12" s="7">
-        <v>256555</v>
+        <v>168454</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>339</v>
+        <v>240</v>
       </c>
       <c r="I12" s="7">
-        <v>242251</v>
+        <v>167020</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>686</v>
+        <v>475</v>
       </c>
       <c r="N12" s="7">
-        <v>498806</v>
+        <v>335474</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>943</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>660737</v>
+        <v>3402</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
-        <v>944</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>626850</v>
+        <v>1211</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M13" s="7">
+        <v>7</v>
+      </c>
+      <c r="N13" s="7">
+        <v>4614</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1887</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1287587</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>10</v>
+        <v>211</v>
       </c>
       <c r="D14" s="7">
-        <v>6661</v>
+        <v>156990</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H14" s="7">
+        <v>220</v>
+      </c>
+      <c r="I14" s="7">
+        <v>155289</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H14" s="7">
-        <v>10</v>
-      </c>
-      <c r="I14" s="7">
-        <v>6372</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="7">
+        <v>431</v>
+      </c>
+      <c r="N14" s="7">
+        <v>312278</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M14" s="7">
-        <v>20</v>
-      </c>
-      <c r="N14" s="7">
-        <v>13033</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,55 +3786,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>216</v>
+      </c>
+      <c r="D15" s="7">
+        <v>160392</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7">
+        <v>222</v>
+      </c>
+      <c r="I15" s="7">
+        <v>156500</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="7">
+        <v>438</v>
+      </c>
+      <c r="N15" s="7">
+        <v>316892</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>10</v>
+      </c>
+      <c r="D16" s="7">
+        <v>6661</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H16" s="7">
+        <v>10</v>
+      </c>
+      <c r="I16" s="7">
+        <v>6372</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="M16" s="7">
+        <v>20</v>
+      </c>
+      <c r="N16" s="7">
+        <v>13033</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>943</v>
+      </c>
+      <c r="D17" s="7">
+        <v>660737</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H17" s="7">
+        <v>944</v>
+      </c>
+      <c r="I17" s="7">
+        <v>626850</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1887</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1287587</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>953</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>667398</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="7">
         <v>954</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>633222</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="7">
         <v>1907</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1300620</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3379,8 +4008,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B406B3F-7EA2-404B-B58D-C4AFEB9832A8}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98A7BA4-4FE2-4324-8D48-8D03DE834FC2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3396,7 +4025,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3497,100 +4126,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>116645</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>30</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>103644</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
-        <v>422</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>220289</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>57938</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>199</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="I5" s="7">
-        <v>159</v>
+        <v>57369</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>235</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="N5" s="7">
-        <v>159</v>
+        <v>115306</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>236</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>202</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,153 +4228,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>115</v>
+      </c>
+      <c r="D6" s="7">
+        <v>57938</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7">
+        <v>109</v>
+      </c>
+      <c r="I6" s="7">
+        <v>57369</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="7">
         <v>224</v>
       </c>
-      <c r="D6" s="7">
-        <v>116645</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>199</v>
-      </c>
-      <c r="I6" s="7">
-        <v>103803</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="7">
-        <v>423</v>
-      </c>
       <c r="N6" s="7">
-        <v>220448</v>
+        <v>115306</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>269</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>203707</v>
+        <v>1348</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>237</v>
       </c>
       <c r="H7" s="7">
-        <v>280</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>197564</v>
+        <v>159</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>84</v>
+        <v>238</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="M7" s="7">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>401272</v>
+        <v>1507</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>272</v>
       </c>
       <c r="D8" s="7">
-        <v>1348</v>
+        <v>173223</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>144</v>
+        <v>217</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>242</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>257</v>
       </c>
       <c r="I8" s="7">
-        <v>703</v>
+        <v>158606</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>89</v>
+        <v>243</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>227</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>529</v>
       </c>
       <c r="N8" s="7">
-        <v>2051</v>
+        <v>331828</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,153 +4383,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D9" s="7">
-        <v>205055</v>
+        <v>174571</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I9" s="7">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="N9" s="7">
-        <v>403323</v>
+        <v>333335</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>469</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>394615</v>
+        <v>1455</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="H10" s="7">
-        <v>449</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>339273</v>
+        <v>703</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="M10" s="7">
-        <v>918</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>733888</v>
+        <v>2158</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>241</v>
       </c>
       <c r="D11" s="7">
-        <v>5811</v>
+        <v>201023</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>10</v>
+        <v>230</v>
       </c>
       <c r="I11" s="7">
-        <v>8738</v>
+        <v>173807</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>18</v>
+        <v>471</v>
       </c>
       <c r="N11" s="7">
-        <v>14549</v>
+        <v>374830</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,153 +4538,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>477</v>
+        <v>243</v>
       </c>
       <c r="D12" s="7">
-        <v>400426</v>
+        <v>202478</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>459</v>
+        <v>231</v>
       </c>
       <c r="I12" s="7">
-        <v>348011</v>
+        <v>174510</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>936</v>
+        <v>474</v>
       </c>
       <c r="N12" s="7">
-        <v>748437</v>
+        <v>376988</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>962</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>714969</v>
+        <v>4356</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>224</v>
+        <v>116</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="H13" s="7">
-        <v>927</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>640480</v>
+        <v>8738</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>127</v>
+        <v>261</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="M13" s="7">
-        <v>1889</v>
+        <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>1355449</v>
+        <v>13094</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>228</v>
+        <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>229</v>
+        <v>129</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7">
+        <v>334</v>
+      </c>
+      <c r="D14" s="7">
+        <v>282784</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="7">
+        <v>331</v>
+      </c>
+      <c r="I14" s="7">
+        <v>250700</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="M14" s="7">
+        <v>665</v>
+      </c>
+      <c r="N14" s="7">
+        <v>533484</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="7">
-        <v>10</v>
-      </c>
-      <c r="D14" s="7">
-        <v>7158</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H14" s="7">
-        <v>12</v>
-      </c>
-      <c r="I14" s="7">
-        <v>9601</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M14" s="7">
-        <v>22</v>
-      </c>
-      <c r="N14" s="7">
-        <v>16759</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>235</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>41</v>
+        <v>268</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,55 +4693,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>340</v>
+      </c>
+      <c r="D15" s="7">
+        <v>287140</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7">
+        <v>341</v>
+      </c>
+      <c r="I15" s="7">
+        <v>259438</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="7">
+        <v>681</v>
+      </c>
+      <c r="N15" s="7">
+        <v>546578</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>10</v>
+      </c>
+      <c r="D16" s="7">
+        <v>7158</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H16" s="7">
+        <v>12</v>
+      </c>
+      <c r="I16" s="7">
+        <v>9601</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M16" s="7">
+        <v>22</v>
+      </c>
+      <c r="N16" s="7">
+        <v>16759</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>962</v>
+      </c>
+      <c r="D17" s="7">
+        <v>714969</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="7">
+        <v>927</v>
+      </c>
+      <c r="I17" s="7">
+        <v>640480</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1889</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1355449</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>972</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>722127</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="7">
         <v>939</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>650081</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="7">
         <v>1911</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1372208</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP28_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP28_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C5193DA-B658-45E5-942E-2C3738C3DF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BDC2670-EDA5-45C3-9C9C-76DDF9BAEE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5140B718-4FFE-463E-A03B-D87CC62119E9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{06A63E41-EC0C-46F9-A418-9EFE77BDB3A2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="277">
   <si>
     <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2007 (Tasa respuesta: 98,72%)</t>
   </si>
@@ -80,802 +80,796 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2012 (Tasa respuesta: 91,33%)</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2016 (Tasa respuesta: 89,7%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2023 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
   </si>
   <si>
     <t>97,6%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2012 (Tasa respuesta: 91,33%)</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
+    <t>96,05%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
   </si>
   <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2015 (Tasa respuesta: 89,7%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
   </si>
   <si>
     <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2023 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2697018-8320-46EE-B909-C387ABC799F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAEF594B-461A-4D49-809B-A6E8C0D8AC98}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1599,10 +1593,10 @@
         <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1617,10 +1611,10 @@
         <v>249070</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -1632,13 +1626,13 @@
         <v>244935</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="M8" s="7">
         <v>742</v>
@@ -1647,13 +1641,13 @@
         <v>494005</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1709,7 +1703,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1721,13 +1715,13 @@
         <v>2075</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -1736,13 +1730,13 @@
         <v>2029</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -1751,13 +1745,13 @@
         <v>4104</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1772,13 +1766,13 @@
         <v>136944</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H11" s="7">
         <v>187</v>
@@ -1787,13 +1781,13 @@
         <v>124985</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M11" s="7">
         <v>392</v>
@@ -1802,13 +1796,13 @@
         <v>261929</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1864,7 +1858,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1876,13 +1870,13 @@
         <v>4738</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -1891,13 +1885,13 @@
         <v>3214</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -1906,13 +1900,13 @@
         <v>7952</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,13 +1921,13 @@
         <v>201311</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>278</v>
@@ -1942,13 +1936,13 @@
         <v>188864</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>581</v>
@@ -1957,13 +1951,13 @@
         <v>390174</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2031,13 +2025,13 @@
         <v>8810</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -2046,13 +2040,13 @@
         <v>8832</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -2061,13 +2055,13 @@
         <v>17642</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2082,13 +2076,13 @@
         <v>706808</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H17" s="7">
         <v>989</v>
@@ -2194,7 +2188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3817B1-0461-4C1A-AED3-2BFE8134D1EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B10A5B-E485-44D7-985D-85D9716E26F7}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2351,10 +2345,10 @@
         <v>105</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,13 +2363,13 @@
         <v>129769</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H5" s="7">
         <v>194</v>
@@ -2384,10 +2378,10 @@
         <v>130202</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2399,13 +2393,13 @@
         <v>259971</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,13 +2467,13 @@
         <v>1455</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2488,13 +2482,13 @@
         <v>756</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -2506,10 +2500,10 @@
         <v>101</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,10 +2518,10 @@
         <v>241406</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -2539,7 +2533,7 @@
         <v>210313</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>123</v>
@@ -2554,7 +2548,7 @@
         <v>451719</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>124</v>
@@ -2616,7 +2610,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2628,7 +2622,7 @@
         <v>2665</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>126</v>
@@ -2646,10 +2640,10 @@
         <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -2658,13 +2652,13 @@
         <v>7470</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,10 +2676,10 @@
         <v>96</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H11" s="7">
         <v>203</v>
@@ -2694,13 +2688,13 @@
         <v>143041</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="M11" s="7">
         <v>412</v>
@@ -2709,13 +2703,13 @@
         <v>288075</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,7 +2765,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2783,13 +2777,13 @@
         <v>5300</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -2798,13 +2792,13 @@
         <v>6047</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -2813,13 +2807,13 @@
         <v>11346</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2834,7 +2828,7 @@
         <v>161701</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>150</v>
@@ -2938,13 +2932,13 @@
         <v>11419</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -2953,13 +2947,13 @@
         <v>13052</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -2968,13 +2962,13 @@
         <v>24471</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,13 +2983,13 @@
         <v>677911</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="H17" s="7">
         <v>914</v>
@@ -3004,13 +2998,13 @@
         <v>633305</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>169</v>
+        <v>90</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="M17" s="7">
         <v>1882</v>
@@ -3019,13 +3013,13 @@
         <v>1311215</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,7 +3095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452361CA-FE1D-4391-BE11-1FC7BB353504}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96B40E1-9CFE-48E8-A2E1-3CE258BF3110}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3118,7 +3112,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3228,7 +3222,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>103</v>
@@ -3243,10 +3237,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3258,10 +3252,10 @@
         <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,7 +3273,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -3294,7 +3288,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -3309,7 +3303,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>26</v>
@@ -3380,13 +3374,13 @@
         <v>666</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3395,13 +3389,13 @@
         <v>1751</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -3410,13 +3404,13 @@
         <v>2417</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,10 +3425,10 @@
         <v>223200</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -3446,13 +3440,13 @@
         <v>186622</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M8" s="7">
         <v>622</v>
@@ -3461,13 +3455,13 @@
         <v>409822</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,7 +3517,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3535,13 +3529,13 @@
         <v>2594</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -3550,13 +3544,13 @@
         <v>3409</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -3565,13 +3559,13 @@
         <v>6003</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3580,13 @@
         <v>165860</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H11" s="7">
         <v>235</v>
@@ -3601,13 +3595,13 @@
         <v>163611</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M11" s="7">
         <v>466</v>
@@ -3616,13 +3610,13 @@
         <v>329471</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,7 +3672,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3690,13 +3684,13 @@
         <v>3402</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3705,13 +3699,13 @@
         <v>1211</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3720,13 +3714,13 @@
         <v>4614</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,13 +3735,13 @@
         <v>156990</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>216</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>220</v>
@@ -3756,10 +3750,10 @@
         <v>155289</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -3771,13 +3765,13 @@
         <v>312278</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,13 +3839,13 @@
         <v>6661</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -3860,13 +3854,13 @@
         <v>6372</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -3875,13 +3869,13 @@
         <v>13033</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>179</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,13 +3890,13 @@
         <v>660737</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H17" s="7">
         <v>944</v>
@@ -3911,13 +3905,13 @@
         <v>626850</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M17" s="7">
         <v>1887</v>
@@ -3926,13 +3920,13 @@
         <v>1287587</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,7 +4002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98A7BA4-4FE2-4324-8D48-8D03DE834FC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A3D256-25FF-4E16-B103-F26D513AE220}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4025,7 +4019,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4135,10 +4129,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4150,10 +4144,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4165,10 +4159,10 @@
         <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,7 +4180,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -4201,7 +4195,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -4216,7 +4210,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>26</v>
@@ -4287,13 +4281,13 @@
         <v>1348</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4302,13 +4296,13 @@
         <v>159</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>221</v>
+        <v>101</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -4317,13 +4311,13 @@
         <v>1507</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>239</v>
+        <v>126</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,10 +4332,10 @@
         <v>173223</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -4353,10 +4347,10 @@
         <v>158606</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>227</v>
+        <v>109</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -4368,13 +4362,13 @@
         <v>331828</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>244</v>
+        <v>134</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,7 +4424,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4442,13 +4436,13 @@
         <v>1455</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4457,13 +4451,13 @@
         <v>703</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>250</v>
+        <v>68</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4472,13 +4466,13 @@
         <v>2158</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>120</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,10 +4487,10 @@
         <v>201023</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -4508,10 +4502,10 @@
         <v>173807</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -4523,13 +4517,13 @@
         <v>374830</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>124</v>
+        <v>251</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,7 +4579,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4600,10 +4594,10 @@
         <v>100</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>116</v>
+        <v>253</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -4612,13 +4606,13 @@
         <v>8738</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -4627,13 +4621,13 @@
         <v>13094</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,13 +4642,13 @@
         <v>282784</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>121</v>
+        <v>260</v>
       </c>
       <c r="H14" s="7">
         <v>331</v>
@@ -4663,13 +4657,13 @@
         <v>250700</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>665</v>
@@ -4678,13 +4672,13 @@
         <v>533484</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +4746,13 @@
         <v>7158</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>159</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -4767,13 +4761,13 @@
         <v>9601</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>131</v>
+        <v>268</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -4782,13 +4776,13 @@
         <v>16759</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>273</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,13 +4797,13 @@
         <v>714969</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>168</v>
+        <v>271</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>274</v>
+        <v>223</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="H17" s="7">
         <v>927</v>
@@ -4818,13 +4812,13 @@
         <v>640480</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>139</v>
+        <v>273</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="M17" s="7">
         <v>1889</v>
@@ -4833,13 +4827,13 @@
         <v>1355449</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP28_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP28_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BDC2670-EDA5-45C3-9C9C-76DDF9BAEE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8A876C9-2A69-4309-A4D1-565F1DE3C0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{06A63E41-EC0C-46F9-A418-9EFE77BDB3A2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{11062E13-4E1C-4BE9-91BF-9A5EC48BE39B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="275">
   <si>
     <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2007 (Tasa respuesta: 98,72%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,483 +74,507 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>2,65%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2012 (Tasa respuesta: 91,33%)</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
     <t>1,93%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
   </si>
   <si>
     <t>98,07%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>0,54%</t>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
   </si>
   <si>
     <t>98,34%</t>
   </si>
   <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
+    <t>97,37%</t>
   </si>
   <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2012 (Tasa respuesta: 91,33%)</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
   </si>
   <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
     <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2016 (Tasa respuesta: 89,7%)</t>
   </si>
   <si>
@@ -563,313 +587,283 @@
     <t>99,02%</t>
   </si>
   <si>
+    <t>0,93%</t>
+  </si>
+  <si>
     <t>0,3%</t>
   </si>
   <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2023 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
   </si>
   <si>
     <t>98,71%</t>
   </si>
   <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>Menores según si su peso es bastante mayor de lo normal en relación con su altura en 2023 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAEF594B-461A-4D49-809B-A6E8C0D8AC98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2423356F-A75B-479D-B9F9-EF20B52721AE}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1402,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>639</v>
+        <v>598</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1417,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>598</v>
+        <v>639</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1450,10 +1444,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="D5" s="7">
-        <v>119482</v>
+        <v>102897</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1465,10 +1459,10 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="I5" s="7">
-        <v>102897</v>
+        <v>119482</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -1501,25 +1495,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>158</v>
+      </c>
+      <c r="D6" s="7">
+        <v>103495</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7">
         <v>180</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>120121</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="7">
-        <v>158</v>
-      </c>
-      <c r="I6" s="7">
-        <v>103495</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
@@ -1554,31 +1548,31 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>1359</v>
+        <v>2991</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1359</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="7">
-        <v>4</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2991</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>32</v>
@@ -1593,10 +1587,10 @@
         <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1605,34 +1599,34 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>367</v>
+      </c>
+      <c r="D8" s="7">
+        <v>244935</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="7">
         <v>375</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>249070</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="H8" s="7">
-        <v>367</v>
-      </c>
-      <c r="I8" s="7">
-        <v>244935</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>742</v>
@@ -1641,13 +1635,13 @@
         <v>494005</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,25 +1650,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>371</v>
+      </c>
+      <c r="D9" s="7">
+        <v>247926</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="7">
         <v>377</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>250429</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="7">
-        <v>371</v>
-      </c>
-      <c r="I9" s="7">
-        <v>247926</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -1703,7 +1697,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1712,31 +1706,31 @@
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>2075</v>
+        <v>2029</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>2029</v>
+        <v>2075</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -1745,13 +1739,13 @@
         <v>4104</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1760,34 +1754,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>187</v>
+      </c>
+      <c r="D11" s="7">
+        <v>124985</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="7">
         <v>205</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>136944</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="7">
-        <v>187</v>
-      </c>
-      <c r="I11" s="7">
-        <v>124985</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M11" s="7">
         <v>392</v>
@@ -1796,13 +1790,13 @@
         <v>261929</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1811,25 +1805,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>190</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127014</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="7">
         <v>208</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>139019</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="7">
-        <v>190</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127014</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -1858,40 +1852,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3214</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="7">
         <v>7</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>4738</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3214</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -1900,13 +1894,13 @@
         <v>7952</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1915,31 +1909,31 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>278</v>
+      </c>
+      <c r="D14" s="7">
+        <v>188864</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="7">
         <v>303</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>201311</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="7">
-        <v>278</v>
-      </c>
-      <c r="I14" s="7">
-        <v>188864</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>76</v>
@@ -1966,25 +1960,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>283</v>
+      </c>
+      <c r="D15" s="7">
+        <v>192078</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7">
         <v>310</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>206049</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="7">
-        <v>283</v>
-      </c>
-      <c r="I15" s="7">
-        <v>192078</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -2022,7 +2016,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="7">
-        <v>8810</v>
+        <v>8832</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>80</v>
@@ -2037,7 +2031,7 @@
         <v>13</v>
       </c>
       <c r="I16" s="7">
-        <v>8832</v>
+        <v>8810</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>83</v>
@@ -2070,10 +2064,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>1062</v>
+        <v>989</v>
       </c>
       <c r="D17" s="7">
-        <v>706808</v>
+        <v>661681</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>89</v>
@@ -2085,10 +2079,10 @@
         <v>91</v>
       </c>
       <c r="H17" s="7">
-        <v>989</v>
+        <v>1062</v>
       </c>
       <c r="I17" s="7">
-        <v>661681</v>
+        <v>706808</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>92</v>
@@ -2103,7 +2097,7 @@
         <v>2051</v>
       </c>
       <c r="N17" s="7">
-        <v>1368488</v>
+        <v>1368489</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>95</v>
@@ -2121,25 +2115,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1002</v>
+      </c>
+      <c r="D18" s="7">
+        <v>670513</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="7">
         <v>1075</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>715618</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1002</v>
-      </c>
-      <c r="I18" s="7">
-        <v>670513</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>26</v>
@@ -2154,7 +2148,7 @@
         <v>2077</v>
       </c>
       <c r="N18" s="7">
-        <v>1386130</v>
+        <v>1386131</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>26</v>
@@ -2188,7 +2182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B10A5B-E485-44D7-985D-85D9716E26F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB0D92F-3987-414B-9BB4-6C47A55F0768}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2306,31 +2300,31 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>1999</v>
+        <v>1445</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>100</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1999</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1445</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>104</v>
@@ -2345,7 +2339,7 @@
         <v>105</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>106</v>
@@ -2357,10 +2351,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D5" s="7">
-        <v>129769</v>
+        <v>130202</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>107</v>
@@ -2369,22 +2363,22 @@
         <v>108</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7">
+        <v>185</v>
+      </c>
+      <c r="I5" s="7">
+        <v>129769</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H5" s="7">
-        <v>194</v>
-      </c>
-      <c r="I5" s="7">
-        <v>130202</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="M5" s="7">
         <v>379</v>
@@ -2399,7 +2393,7 @@
         <v>113</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,25 +2402,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>196</v>
+      </c>
+      <c r="D6" s="7">
+        <v>131647</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7">
         <v>188</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>131768</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="7">
-        <v>196</v>
-      </c>
-      <c r="I6" s="7">
-        <v>131647</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
@@ -2461,10 +2455,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1455</v>
+        <v>756</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>114</v>
@@ -2476,10 +2470,10 @@
         <v>115</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>756</v>
+        <v>1455</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>116</v>
@@ -2497,7 +2491,7 @@
         <v>2211</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>118</v>
@@ -2512,10 +2506,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="D8" s="7">
-        <v>241406</v>
+        <v>210313</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>120</v>
@@ -2527,10 +2521,10 @@
         <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="I8" s="7">
-        <v>210313</v>
+        <v>241406</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>122</v>
@@ -2548,7 +2542,7 @@
         <v>451719</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>124</v>
@@ -2563,25 +2557,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>304</v>
+      </c>
+      <c r="D9" s="7">
+        <v>211069</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="7">
         <v>337</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>242861</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="7">
-        <v>304</v>
-      </c>
-      <c r="I9" s="7">
-        <v>211069</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -2610,40 +2604,40 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4805</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="7">
         <v>4</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>2665</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H10" s="7">
-        <v>7</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4805</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -2652,13 +2646,13 @@
         <v>7470</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2667,34 +2661,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>203</v>
+      </c>
+      <c r="D11" s="7">
+        <v>143041</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="7">
         <v>209</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>145034</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H11" s="7">
-        <v>203</v>
-      </c>
-      <c r="I11" s="7">
-        <v>143041</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="M11" s="7">
         <v>412</v>
@@ -2703,13 +2697,13 @@
         <v>288075</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,25 +2712,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>210</v>
+      </c>
+      <c r="D12" s="7">
+        <v>147846</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="7">
         <v>213</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>147699</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="7">
-        <v>210</v>
-      </c>
-      <c r="I12" s="7">
-        <v>147846</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -2765,7 +2759,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2774,31 +2768,31 @@
         <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>5300</v>
+        <v>6047</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>6047</v>
+        <v>5300</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -2807,13 +2801,13 @@
         <v>11346</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,34 +2816,34 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>214</v>
+      </c>
+      <c r="D14" s="7">
+        <v>149748</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14" s="7">
         <v>239</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>161701</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H14" s="7">
-        <v>214</v>
-      </c>
-      <c r="I14" s="7">
-        <v>149748</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M14" s="7">
         <v>453</v>
@@ -2858,13 +2852,13 @@
         <v>311450</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,25 +2867,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>222</v>
+      </c>
+      <c r="D15" s="7">
+        <v>155795</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7">
         <v>247</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>167001</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="7">
-        <v>222</v>
-      </c>
-      <c r="I15" s="7">
-        <v>155795</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -2926,34 +2920,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>18</v>
+      </c>
+      <c r="D16" s="7">
+        <v>13052</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H16" s="7">
         <v>17</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>11419</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H16" s="7">
-        <v>18</v>
-      </c>
-      <c r="I16" s="7">
-        <v>13052</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -2962,13 +2956,13 @@
         <v>24471</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,34 +2971,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>914</v>
+      </c>
+      <c r="D17" s="7">
+        <v>633305</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17" s="7">
         <v>968</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>677911</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="7">
-        <v>914</v>
-      </c>
-      <c r="I17" s="7">
-        <v>633305</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="M17" s="7">
         <v>1882</v>
@@ -3013,13 +3007,13 @@
         <v>1311215</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,25 +3022,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>932</v>
+      </c>
+      <c r="D18" s="7">
+        <v>646357</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="7">
         <v>985</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>689330</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="7">
-        <v>932</v>
-      </c>
-      <c r="I18" s="7">
-        <v>646357</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>26</v>
@@ -3095,7 +3089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96B40E1-9CFE-48E8-A2E1-3CE258BF3110}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1A3D9C-E53E-4A01-A4FB-BB2647685816}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3112,7 +3106,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3222,10 +3216,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>103</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3237,10 +3231,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3252,10 +3246,10 @@
         <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,31 +3258,31 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="D5" s="7">
-        <v>114685</v>
+        <v>121329</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H5" s="7">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="I5" s="7">
-        <v>121329</v>
+        <v>114685</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -3303,7 +3297,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>26</v>
@@ -3315,25 +3309,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>195</v>
+      </c>
+      <c r="D6" s="7">
+        <v>121329</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7">
         <v>173</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>114685</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="7">
-        <v>195</v>
-      </c>
-      <c r="I6" s="7">
-        <v>121329</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
@@ -3368,34 +3362,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1751</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>666</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H7" s="7">
-        <v>3</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1751</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -3404,13 +3398,13 @@
         <v>2417</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,34 +3413,34 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>294</v>
+      </c>
+      <c r="D8" s="7">
+        <v>186622</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H8" s="7">
         <v>328</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>223200</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="H8" s="7">
-        <v>294</v>
-      </c>
-      <c r="I8" s="7">
-        <v>186622</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M8" s="7">
         <v>622</v>
@@ -3455,13 +3449,13 @@
         <v>409822</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,25 +3464,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>297</v>
+      </c>
+      <c r="D9" s="7">
+        <v>188373</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="7">
         <v>329</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>223866</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="7">
-        <v>297</v>
-      </c>
-      <c r="I9" s="7">
-        <v>188373</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -3517,40 +3511,40 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3409</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10" s="7">
         <v>4</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>2594</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>3409</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>190</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -3559,13 +3553,13 @@
         <v>6003</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,34 +3568,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>235</v>
+      </c>
+      <c r="D11" s="7">
+        <v>163611</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H11" s="7">
         <v>231</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>165860</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H11" s="7">
-        <v>235</v>
-      </c>
-      <c r="I11" s="7">
-        <v>163611</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>197</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>466</v>
@@ -3610,13 +3604,13 @@
         <v>329471</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,25 +3619,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>240</v>
+      </c>
+      <c r="D12" s="7">
+        <v>167020</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="7">
         <v>235</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>168454</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="7">
-        <v>240</v>
-      </c>
-      <c r="I12" s="7">
-        <v>167020</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -3672,40 +3666,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1211</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H13" s="7">
         <v>5</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>3402</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1211</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3714,13 +3708,13 @@
         <v>4614</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>116</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,34 +3723,34 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>220</v>
+      </c>
+      <c r="D14" s="7">
+        <v>155289</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7">
         <v>211</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>156990</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="H14" s="7">
-        <v>220</v>
-      </c>
-      <c r="I14" s="7">
-        <v>155289</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="M14" s="7">
         <v>431</v>
@@ -3765,13 +3759,13 @@
         <v>312278</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,25 +3774,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>222</v>
+      </c>
+      <c r="D15" s="7">
+        <v>156500</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7">
         <v>216</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>160392</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="7">
-        <v>222</v>
-      </c>
-      <c r="I15" s="7">
-        <v>156500</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -3836,31 +3830,31 @@
         <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>6661</v>
+        <v>6372</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
       </c>
       <c r="I16" s="7">
-        <v>6372</v>
+        <v>6661</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -3869,13 +3863,13 @@
         <v>13033</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>43</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,34 +3878,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>944</v>
+      </c>
+      <c r="D17" s="7">
+        <v>626850</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="7">
         <v>943</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>660737</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H17" s="7">
-        <v>944</v>
-      </c>
-      <c r="I17" s="7">
-        <v>626850</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
         <v>1887</v>
@@ -3920,13 +3914,13 @@
         <v>1287587</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>52</v>
+        <v>228</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,25 +3929,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>954</v>
+      </c>
+      <c r="D18" s="7">
+        <v>633222</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="7">
         <v>953</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>667398</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="7">
-        <v>954</v>
-      </c>
-      <c r="I18" s="7">
-        <v>633222</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>26</v>
@@ -4002,7 +3996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A3D256-25FF-4E16-B103-F26D513AE220}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40410FCB-E17E-419C-B7FD-FA94C6C82D2C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4019,7 +4013,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4129,10 +4123,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4144,10 +4138,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4159,10 +4153,10 @@
         <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,25 +4165,25 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D5" s="7">
-        <v>57938</v>
+        <v>57511</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H5" s="7">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I5" s="7">
-        <v>57369</v>
+        <v>60859</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>21</v>
@@ -4204,7 +4198,7 @@
         <v>224</v>
       </c>
       <c r="N5" s="7">
-        <v>115306</v>
+        <v>118369</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>21</v>
@@ -4222,25 +4216,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>109</v>
+      </c>
+      <c r="D6" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7">
         <v>115</v>
       </c>
-      <c r="D6" s="7">
-        <v>57938</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="7">
-        <v>109</v>
-      </c>
       <c r="I6" s="7">
-        <v>57369</v>
+        <v>60859</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
@@ -4255,7 +4249,7 @@
         <v>224</v>
       </c>
       <c r="N6" s="7">
-        <v>115306</v>
+        <v>118369</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>26</v>
@@ -4275,49 +4269,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1348</v>
+        <v>164</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>159</v>
+        <v>1303</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>238</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>1507</v>
+        <v>1467</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>126</v>
+        <v>236</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>206</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,31 +4320,31 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D8" s="7">
-        <v>173223</v>
+        <v>159135</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="I8" s="7">
-        <v>158606</v>
+        <v>180534</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>109</v>
+        <v>243</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -4359,16 +4353,16 @@
         <v>529</v>
       </c>
       <c r="N8" s="7">
-        <v>331828</v>
+        <v>339670</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>134</v>
+        <v>241</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>213</v>
+        <v>124</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4377,25 +4371,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="7">
         <v>274</v>
       </c>
-      <c r="D9" s="7">
-        <v>174571</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>181837</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -4410,7 +4404,7 @@
         <v>532</v>
       </c>
       <c r="N9" s="7">
-        <v>333335</v>
+        <v>341137</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>26</v>
@@ -4424,55 +4418,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1455</v>
+        <v>810</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>703</v>
+        <v>1579</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>68</v>
+        <v>248</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>2158</v>
+        <v>2389</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,31 +4475,31 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D11" s="7">
-        <v>201023</v>
+        <v>170752</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="I11" s="7">
-        <v>173807</v>
+        <v>210911</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -4514,16 +4508,16 @@
         <v>471</v>
       </c>
       <c r="N11" s="7">
-        <v>374830</v>
+        <v>381664</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4532,25 +4526,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>231</v>
+      </c>
+      <c r="D12" s="7">
+        <v>171562</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="7">
-        <v>231</v>
-      </c>
       <c r="I12" s="7">
-        <v>174510</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -4565,7 +4559,7 @@
         <v>474</v>
       </c>
       <c r="N12" s="7">
-        <v>376988</v>
+        <v>384053</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>26</v>
@@ -4579,55 +4573,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>10</v>
+      </c>
+      <c r="D13" s="7">
+        <v>8568</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H13" s="7">
         <v>6</v>
       </c>
-      <c r="D13" s="7">
-        <v>4356</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H13" s="7">
-        <v>10</v>
-      </c>
       <c r="I13" s="7">
-        <v>8738</v>
+        <v>4571</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>255</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>256</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>13094</v>
+        <v>13139</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,49 +4630,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>331</v>
+      </c>
+      <c r="D14" s="7">
+        <v>265699</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="7">
         <v>334</v>
       </c>
-      <c r="D14" s="7">
-        <v>282784</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H14" s="7">
-        <v>331</v>
-      </c>
       <c r="I14" s="7">
-        <v>250700</v>
+        <v>298784</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>261</v>
+        <v>156</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>262</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>56</v>
       </c>
       <c r="M14" s="7">
         <v>665</v>
       </c>
       <c r="N14" s="7">
-        <v>533484</v>
+        <v>564484</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>124</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4687,25 +4681,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>341</v>
+      </c>
+      <c r="D15" s="7">
+        <v>274267</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7">
         <v>340</v>
       </c>
-      <c r="D15" s="7">
-        <v>287140</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="7">
-        <v>341</v>
-      </c>
       <c r="I15" s="7">
-        <v>259438</v>
+        <v>303355</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -4720,7 +4714,7 @@
         <v>681</v>
       </c>
       <c r="N15" s="7">
-        <v>546578</v>
+        <v>577623</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -4740,31 +4734,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7">
+        <v>9542</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H16" s="7">
         <v>10</v>
       </c>
-      <c r="D16" s="7">
-        <v>7158</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H16" s="7">
-        <v>12</v>
-      </c>
       <c r="I16" s="7">
-        <v>9601</v>
+        <v>7453</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>267</v>
+        <v>46</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>268</v>
@@ -4773,7 +4767,7 @@
         <v>22</v>
       </c>
       <c r="N16" s="7">
-        <v>16759</v>
+        <v>16995</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>269</v>
@@ -4782,7 +4776,7 @@
         <v>270</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>161</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,49 +4785,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>927</v>
+      </c>
+      <c r="D17" s="7">
+        <v>653098</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H17" s="7">
         <v>962</v>
       </c>
-      <c r="D17" s="7">
-        <v>714969</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="7">
-        <v>927</v>
-      </c>
       <c r="I17" s="7">
-        <v>640480</v>
+        <v>751088</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>273</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>274</v>
+        <v>56</v>
       </c>
       <c r="M17" s="7">
         <v>1889</v>
       </c>
       <c r="N17" s="7">
-        <v>1355449</v>
+        <v>1404186</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>167</v>
+        <v>272</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4842,25 +4836,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>939</v>
+      </c>
+      <c r="D18" s="7">
+        <v>662640</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="7">
         <v>972</v>
       </c>
-      <c r="D18" s="7">
-        <v>722127</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="7">
-        <v>939</v>
-      </c>
       <c r="I18" s="7">
-        <v>650081</v>
+        <v>758541</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>26</v>
@@ -4875,7 +4869,7 @@
         <v>1911</v>
       </c>
       <c r="N18" s="7">
-        <v>1372208</v>
+        <v>1421181</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>26</v>
